--- a/migration_log.xlsx
+++ b/migration_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Output/Errors</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -514,6 +519,7 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -549,6 +555,7 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,6 +599,7 @@
           <t>'Namespace' object has no attribute 'db'</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -631,6 +639,599 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JoelBielber_GrowPath</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:18</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0:00:19.164783</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(pyodbc.OperationalError) ('08001', '[08001] [Microsoft][ODBC Driver 17 for SQL Server]SQL Server Network Interfaces: Error Locating Server/Instance Specified [xFFFFFFFF].  (-1) (SQLDriverConnect); [08001] [Microsoft][ODBC Driver 17 for SQL Server]Login timeout expired (0); [08001] [Microsoft][ODBC Driver 17 for SQL Server]A network-related or instance-specific error has occurred while establishing a connection to SQL Server. Server is not found or not accessible. Check if instance name is correct and if SQL Server is configured to allow remote connections. For more information see SQL Server Books Online. (-1)')
+(Background on this error at: https://sqlalche.me/e/20/e3q8)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-10-08 10:30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-10-08 10:33</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0:03:08.165934</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>'str' object cannot be interpreted as an integer</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-10-08 11:01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-10-08 11:01</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0:00:01.694725</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>'str' object cannot be interpreted as an integer</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-10-08 11:02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-10-08 11:02</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0:00:00.594166</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>'str' object cannot be interpreted as an integer</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:28</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0:00:05.954531</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>cannot mmap an empty file</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:36</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0:00:06.242798</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(pyodbc.ProgrammingError) ('42S22', "[42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'id'. (207) (SQLExecDirectW); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'name'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'record_type'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'record_id'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'blob_id'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'created_at'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'id'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'name'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'record_type'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'record_id'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'blob_id'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Invalid column name 'created_at'. (207); [42S22] [Microsoft][ODBC Driver 17 for SQL Server][SQL Server]Statement(s) could not be prepared. (8180)")
+[SQL: INSERT INTO active_storage_attachments (id, name, record_type, record_id, blob_id, created_at) VALUES (?, ?, ?, ?, ?, ?), (?, ?, ?, ?, ?, ?), (?, ?, ?, ?, ?, ?), (?, ?, ?, ?, ?, ?), (?, ?, ?, ?, ?, ?)]
+[parameters: (1, 'image', 'MailMerge::ImageAsset', 1, 1, '2020-08-03 23:43:31.347194', 2, 'image', 'MailMerge::ImageAsset', 2, 2, '2020-08-03 23:43:31.361798', 3, 'image', 'MailMerge::ImageAsset', 3, 3, '2020-08-03 23:43:31.387028', 4, 'image', 'MailMerge::ImageAsset', 4, 4, '2020-08-03 23:43:31.402837', 5, 'image', 'MailMerge::ImageAsset', 5, 5, '2020-08-03 23:43:31.421975')]
+(Background on this error at: https://sqlalche.me/e/20/f405)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:02</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0:00:01.658220</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Cannot specify ',' with 's'.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:03</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0:00:02.092824</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0:00:02.197347</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:08</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0:00:00.777833</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-10-09 13:32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-10-09 13:32</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0:00:02.143660</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-10-09 13:32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-10-09 13:32</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0:00:01.483157</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-10-09 13:34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-10-09 13:34</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0:00:01.154411</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-10-09 13:45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-10-09 14:23</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0:38:02.953121</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/migration_log.xlsx
+++ b/migration_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,6 +1233,86 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-10-09 16:29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-10-09 16:29</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0:00:00.018019</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-10-09 16:36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-10-09 16:36</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0:00:01.101790</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/migration_log.xlsx
+++ b/migration_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,6 +1313,178 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-10-10 09:30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-10-10 09:30</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0:00:02.275912</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Cannot specify ',' with 's'.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-10-10 09:32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-10-10 10:18</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0:46:01.726177</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Can't reconnect until invalid transaction is rolled back.  Please rollback() fully before proceeding (Background on this error at: https://sqlalche.me/e/20/8s2b)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-10-10 10:19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-10-10 10:30</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0:11:06.219524</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>cannot mmap an empty file</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>joelbieber_growpath</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>convert_csv_to_sql</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-10-10 10:35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024-10-10 11:49</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1:14:33.574991</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
